--- a/src/ui/Flask/temp_files/cleaned.xlsx
+++ b/src/ui/Flask/temp_files/cleaned.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelveillon/Documents/GitHub/338-dirtydata/src/ui/flask/temp_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7378E1-399D-634E-86A4-0EEFF11C02D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1840" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Album title</t>
   </si>
@@ -113,9 +119,6 @@
   </si>
   <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>girl</t>
   </si>
   <si>
     <t>Female</t>
@@ -124,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +137,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1B1B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E4F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,14 +187,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -208,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,12 +564,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>2011.5</v>
+      <c r="C2" s="1">
+        <v>2012</v>
       </c>
       <c r="D2">
         <v>2025000</v>
@@ -505,7 +587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -518,20 +600,20 @@
       <c r="D3">
         <v>357286</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2623</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -554,10 +636,10 @@
         <v>2772</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -580,10 +662,10 @@
         <v>2458</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -593,14 +675,14 @@
       <c r="C6">
         <v>2018</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
-        <v>4.5</v>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6">
         <v>2248</v>
@@ -609,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -625,14 +707,14 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>2458</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -642,7 +724,7 @@
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
@@ -651,14 +733,14 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2458</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -681,7 +763,7 @@
         <v>2799</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/ui/Flask/temp_files/cleaned.xlsx
+++ b/src/ui/Flask/temp_files/cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prabhavjain/Northwestern Google Drive/338-dirtydata/src/ui/flask/temp_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FFC72-64DC-1B42-84EB-AF20D18C81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252809C5-0055-874E-8FE9-A062D090EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/ui/Flask/temp_files/cleaned.xlsx
+++ b/src/ui/Flask/temp_files/cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prabhavjain/Northwestern Google Drive/338-dirtydata/src/ui/flask/temp_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55223EED-58C1-B447-B484-D1BFBB4184C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE07366-30E1-9F42-9C73-D8ABBED4AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Album title</t>
   </si>
@@ -52,22 +52,22 @@
     <t>Band name</t>
   </si>
   <si>
+    <t>Birdy</t>
+  </si>
+  <si>
+    <t>Florence and the Machine</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Ninja Sex Party</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
     <t>Lil' Janky</t>
-  </si>
-  <si>
-    <t>Birdy</t>
-  </si>
-  <si>
-    <t>Florence and the Machine</t>
-  </si>
-  <si>
-    <t>Lorde</t>
-  </si>
-  <si>
-    <t>Ninja Sex Party</t>
-  </si>
-  <si>
-    <t>Fun</t>
   </si>
   <si>
     <t>Rihanna</t>
@@ -137,18 +137,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9AA2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -193,14 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +568,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2012</v>
       </c>
       <c r="D2">
@@ -602,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2013</v>
@@ -610,16 +600,16 @@
       <c r="D3">
         <v>357286</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>2623</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -628,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2009</v>
@@ -654,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2017</v>
@@ -680,18 +670,18 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2018</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6">
@@ -706,21 +696,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2009</v>
       </c>
-      <c r="D7" s="1">
-        <v>3000000</v>
-      </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2458</v>
       </c>
       <c r="H7" t="s">
@@ -732,12 +719,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
@@ -746,7 +733,7 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2458</v>
       </c>
       <c r="H8" t="s">
